--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C9F21-23F6-41DF-95FE-98430499CD66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB28C4-1990-45B4-BA25-E32FE1489E32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
   <si>
     <t>序号</t>
   </si>
@@ -580,6 +580,12 @@
   </si>
   <si>
     <t>需要splash</t>
+  </si>
+  <si>
+    <t>splash 进入shell模式</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/35352423/scrapy-shell-and-scrapy-splash</t>
   </si>
 </sst>
 </file>
@@ -918,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1762,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -1858,101 +1864,112 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{56CDEC58-FFF9-4E78-A216-6776A65D3B69}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -1962,7 +1979,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB28C4-1990-45B4-BA25-E32FE1489E32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11969B-72D9-48DC-8907-1D281E25D4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>序号</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/35352423/scrapy-shell-and-scrapy-splash</t>
+  </si>
+  <si>
+    <t>scrapy shell "http://localhost:8050/render.html?url="</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1770,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -1866,6 +1869,9 @@
     <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>178</v>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11969B-72D9-48DC-8907-1D281E25D4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A086932-1C69-4B67-B271-B28F541A2D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
   <si>
     <t>序号</t>
   </si>
@@ -573,9 +573,6 @@
     <t>香港友邦</t>
   </si>
   <si>
-    <t>docker run -p 8050:8050 scrapinghub/splash</t>
-  </si>
-  <si>
     <t>注释</t>
   </si>
   <si>
@@ -589,6 +586,21 @@
   </si>
   <si>
     <t>scrapy shell "http://localhost:8050/render.html?url="</t>
+  </si>
+  <si>
+    <t>https://splash.readthedocs.io/en/stable/install.html</t>
+  </si>
+  <si>
+    <t>docker run -p 8050:8050 scrapinghub/splash --max-timeout 3600</t>
+  </si>
+  <si>
+    <t>打开linkExtractor</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/keenshinsword/article/details/79091859</t>
+  </si>
+  <si>
+    <t>from scrapy.linkextractors import LinkExtractor</t>
   </si>
 </sst>
 </file>
@@ -928,7 +940,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -968,7 +980,7 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.7">
@@ -993,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1040,7 +1052,7 @@
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1771,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -1868,124 +1880,140 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{56CDEC58-FFF9-4E78-A216-6776A65D3B69}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{3B1A30E1-050F-4195-968B-088D34BDEEA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2132,6 +2160,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{8DFFEEAB-FF9B-4454-A318-BD7A39A909B6}"/>
@@ -2140,6 +2173,7 @@
     <hyperlink ref="E9" r:id="rId4" xr:uid="{98A19777-AFF1-40FF-8575-F655784D8ACD}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{CD668672-FD6F-4889-99D2-F9369C0D68BF}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A086932-1C69-4B67-B271-B28F541A2D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E32414-911C-4F06-B732-71A5340A7686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -948,6 +948,7 @@
     <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.15625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1785,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2013,7 +2014,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2052,10 +2053,10 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2174,6 +2175,8 @@
     <hyperlink ref="D10" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{CD668672-FD6F-4889-99D2-F9369C0D68BF}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{C0DFC479-BC58-487C-B039-AB789083C87B}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{AD0A7D30-D42D-4702-A592-C70E32396A9B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E32414-911C-4F06-B732-71A5340A7686}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B7952-BADD-49A4-A8BD-0F997B83F326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
     <sheet name="scrapy 抓取套路" sheetId="3" r:id="rId2"/>
     <sheet name="需要学习的内容" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
   <si>
     <t>序号</t>
   </si>
@@ -601,6 +609,18 @@
   </si>
   <si>
     <t>from scrapy.linkextractors import LinkExtractor</t>
+  </si>
+  <si>
+    <t>scrapy crawl 中宏人寿</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>实现对文本的定位</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/cp-miao/p/5567115.html</t>
   </si>
 </sst>
 </file>
@@ -939,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1084,6 +1104,9 @@
       </c>
       <c r="B12" t="s">
         <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2011,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2073,7 +2096,7 @@
       <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2094,89 +2117,105 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>57</v>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="D12" s="1" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{8DFFEEAB-FF9B-4454-A318-BD7A39A909B6}"/>
-    <hyperlink ref="E8" r:id="rId2" tooltip="https://blog.csdn.net/mouday/article/details/80776030" xr:uid="{BDF1465F-DDC3-4FC7-BC64-FC70198034C8}"/>
-    <hyperlink ref="D9" r:id="rId3" tooltip="https://www.cnblogs.com/518894-lu/p/9067208.html" xr:uid="{E31307B2-E458-476F-B99F-5D8B237F8FAD}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{98A19777-AFF1-40FF-8575-F655784D8ACD}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{8DFFEEAB-FF9B-4454-A318-BD7A39A909B6}"/>
+    <hyperlink ref="E9" r:id="rId2" tooltip="https://blog.csdn.net/mouday/article/details/80776030" xr:uid="{BDF1465F-DDC3-4FC7-BC64-FC70198034C8}"/>
+    <hyperlink ref="D10" r:id="rId3" tooltip="https://www.cnblogs.com/518894-lu/p/9067208.html" xr:uid="{E31307B2-E458-476F-B99F-5D8B237F8FAD}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{98A19777-AFF1-40FF-8575-F655784D8ACD}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{CD668672-FD6F-4889-99D2-F9369C0D68BF}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
     <hyperlink ref="D2" r:id="rId8" xr:uid="{C0DFC479-BC58-487C-B039-AB789083C87B}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{AD0A7D30-D42D-4702-A592-C70E32396A9B}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{7211CFDD-27B4-4444-AD2D-D1F2DE8F73B2}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{33C8CA39-467D-4BD1-A426-70B702FC7057}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B7952-BADD-49A4-A8BD-0F997B83F326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F857A5-90C4-47A8-B748-913F416B2499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="189">
   <si>
     <t>序号</t>
   </si>
@@ -622,12 +622,15 @@
   <si>
     <t>https://www.cnblogs.com/cp-miao/p/5567115.html</t>
   </si>
+  <si>
+    <t>scrapy crawl 建信人寿</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +657,13 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -678,9 +688,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -959,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1105,7 +1116,7 @@
       <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1113,8 +1124,11 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2036,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F857A5-90C4-47A8-B748-913F416B2499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2B4D7-6E4A-4A2E-95C4-E4AB6576928D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
   <si>
     <t>序号</t>
   </si>
@@ -55,7 +55,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -65,7 +65,7 @@
         <sz val="10.5"/>
         <color rgb="FF4F4F4F"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">hcp </t>
     </r>
@@ -74,7 +74,7 @@
         <sz val="10.5"/>
         <color rgb="FF006666"/>
         <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>936</t>
     </r>
@@ -624,6 +624,15 @@
   </si>
   <si>
     <t>scrapy crawl 建信人寿</t>
+  </si>
+  <si>
+    <t>文件的保存</t>
+  </si>
+  <si>
+    <t>实现对各种类型文件的保存</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/superfangchao/p/8520685.html</t>
   </si>
 </sst>
 </file>
@@ -643,19 +652,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF4F4F4F"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF006666"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -971,7 +981,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2048,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2127,7 +2137,7 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2145,91 +2155,112 @@
         <v>187</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="1" t="s">
+    <row r="14" spans="1:5">
+      <c r="D14" s="1" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{8DFFEEAB-FF9B-4454-A318-BD7A39A909B6}"/>
-    <hyperlink ref="E9" r:id="rId2" tooltip="https://blog.csdn.net/mouday/article/details/80776030" xr:uid="{BDF1465F-DDC3-4FC7-BC64-FC70198034C8}"/>
-    <hyperlink ref="D10" r:id="rId3" tooltip="https://www.cnblogs.com/518894-lu/p/9067208.html" xr:uid="{E31307B2-E458-476F-B99F-5D8B237F8FAD}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{98A19777-AFF1-40FF-8575-F655784D8ACD}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{8DFFEEAB-FF9B-4454-A318-BD7A39A909B6}"/>
+    <hyperlink ref="E11" r:id="rId2" tooltip="https://blog.csdn.net/mouday/article/details/80776030" xr:uid="{BDF1465F-DDC3-4FC7-BC64-FC70198034C8}"/>
+    <hyperlink ref="D12" r:id="rId3" tooltip="https://www.cnblogs.com/518894-lu/p/9067208.html" xr:uid="{E31307B2-E458-476F-B99F-5D8B237F8FAD}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{98A19777-AFF1-40FF-8575-F655784D8ACD}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{07ABA1D4-F63C-4E40-9AAA-73CDB9D77DBB}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{CD668672-FD6F-4889-99D2-F9369C0D68BF}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{CB03C582-330F-4F31-8D33-B38394F3A5F0}"/>
     <hyperlink ref="D2" r:id="rId8" xr:uid="{C0DFC479-BC58-487C-B039-AB789083C87B}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{AD0A7D30-D42D-4702-A592-C70E32396A9B}"/>
     <hyperlink ref="D5" r:id="rId10" xr:uid="{7211CFDD-27B4-4444-AD2D-D1F2DE8F73B2}"/>
     <hyperlink ref="E3" r:id="rId11" xr:uid="{33C8CA39-467D-4BD1-A426-70B702FC7057}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{B29ACF73-42BD-4F73-8307-43D058F181D8}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{A957A797-A82A-4717-9CC8-9009C1EFF8CD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2B4D7-6E4A-4A2E-95C4-E4AB6576928D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008615B-3FE4-4BCE-944D-3CC3AC56F101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
   <si>
     <t>序号</t>
   </si>
@@ -633,6 +633,27 @@
   </si>
   <si>
     <t>https://www.cnblogs.com/superfangchao/p/8520685.html</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/brucewong0516/article/details/84776089</t>
+  </si>
+  <si>
+    <t>函数向量化</t>
+  </si>
+  <si>
+    <t>向量化操作</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/pscc/p/9569219.html</t>
+  </si>
+  <si>
+    <t>scrapy shell 操作</t>
+  </si>
+  <si>
+    <t>实现shell里加入header或slpash</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/37010524/set-headers-for-scrapy-shell-request</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2060,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2154,6 +2175,9 @@
       <c r="D5" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -2172,6 +2196,32 @@
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2261,6 +2311,8 @@
     <hyperlink ref="E3" r:id="rId11" xr:uid="{33C8CA39-467D-4BD1-A426-70B702FC7057}"/>
     <hyperlink ref="E4" r:id="rId12" xr:uid="{B29ACF73-42BD-4F73-8307-43D058F181D8}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{A957A797-A82A-4717-9CC8-9009C1EFF8CD}"/>
+    <hyperlink ref="D7" r:id="rId14" xr:uid="{CEC48D22-EDB6-45E4-BBD8-BCBC1D780295}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{07318B4E-12D4-4C1D-848E-92FA4F7FE76E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008615B-3FE4-4BCE-944D-3CC3AC56F101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45417226-8193-4308-ADD9-DEF874564253}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/37010524/set-headers-for-scrapy-shell-request</t>
+  </si>
+  <si>
+    <t>scrapy crawl 工银安盛</t>
+  </si>
+  <si>
+    <t>scrapy crawl 交银康联</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1177,6 +1183,9 @@
       <c r="B15" t="s">
         <v>91</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
@@ -1184,6 +1193,9 @@
       </c>
       <c r="B16" t="s">
         <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2081,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349B0330-3566-4C5C-8CF1-43195AAAA01C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45417226-8193-4308-ADD9-DEF874564253}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBFC19-B956-4994-9AA0-EA1278458A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
   <si>
     <t>序号</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>scrapy crawl 交银康联</t>
+  </si>
+  <si>
+    <t>scrapy crawl 中意人寿</t>
+  </si>
+  <si>
+    <t>scrapy crawl 富德生命</t>
   </si>
 </sst>
 </file>
@@ -1007,14 +1013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83984375" customWidth="1"/>
     <col min="4" max="4" width="9.41796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
@@ -1232,6 +1238,9 @@
       <c r="B20" t="s">
         <v>95</v>
       </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
@@ -1239,6 +1248,9 @@
       </c>
       <c r="B21" t="s">
         <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2094,7 +2106,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBFC19-B956-4994-9AA0-EA1278458A9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41232D7E-D58D-48FE-A84B-0CE848EA6361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -581,9 +581,6 @@
     <t>香港友邦</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>需要splash</t>
   </si>
   <si>
@@ -666,6 +663,18 @@
   </si>
   <si>
     <t>scrapy crawl 富德生命</t>
+  </si>
+  <si>
+    <t>注释1</t>
+  </si>
+  <si>
+    <t>注释2</t>
+  </si>
+  <si>
+    <t>需设置ROBOTSTXT_OBEY=False</t>
+  </si>
+  <si>
+    <t>scrapy crawl 光大永明</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1025,7 +1034,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,10 +1064,10 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1080,10 +1089,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1127,10 +1139,10 @@
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1160,10 +1172,10 @@
         <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1171,10 +1183,10 @@
         <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1190,10 +1202,10 @@
         <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1201,10 +1213,10 @@
         <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1239,10 +1251,10 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1250,18 +1262,27 @@
         <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1269,7 +1290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1293,7 +1314,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1301,7 +1322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>24</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>25</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>26</v>
       </c>
@@ -1333,7 +1354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>27</v>
       </c>
@@ -1973,24 +1994,24 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2191,16 +2212,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2208,13 +2229,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2222,13 +2243,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2236,16 +2257,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
         <v>196</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>197</v>
       </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2317,7 +2338,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41232D7E-D58D-48FE-A84B-0CE848EA6361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB9AE65-095A-4DBE-AB57-674542134673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="207">
   <si>
     <t>序号</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>scrapy crawl 光大永明</t>
+  </si>
+  <si>
+    <t>dir(目标)得到attribute list</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1899,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2096,6 +2099,11 @@
       </c>
       <c r="C20" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2127,7 +2135,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>

--- a/scrapy命令表.xlsx
+++ b/scrapy命令表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB9AE65-095A-4DBE-AB57-674542134673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBFEBAE-E013-453A-A2E8-483B59886525}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>在最开始输入</t>
   </si>
   <si>
-    <t>先查看wangz</t>
-  </si>
-  <si>
     <t>scrapy shell 模式</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>dir(目标)得到attribute list</t>
+  </si>
+  <si>
+    <t>先查看网址</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1064,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.7">
@@ -1092,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
         <v>202</v>
-      </c>
-      <c r="E5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1136,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1183,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1232,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1243,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1251,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1273,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1290,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1306,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1330,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1338,7 +1338,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1354,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1362,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -1965,56 +1965,56 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2025,45 +2025,45 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2071,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2090,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2098,12 +2098,12 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="D22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2111,13 +2111,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4"/>
@@ -2149,19 +2149,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.05" customHeight="1">
@@ -2169,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1">
@@ -2189,13 +2189,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1">
@@ -2203,16 +2203,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2220,16 +2220,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
         <v>184</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2237,13 +2237,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2251,13 +2251,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" t="s">
-        <v>193</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2265,38 +2265,38 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
         <v>195</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>196</v>
       </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2304,16 +2304,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2321,16 +2321,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2338,15 +2338,15 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
